--- a/secure/26e-Lena.xlsx
+++ b/secure/26e-Lena.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Lena-1034567</t>
+    <t>26e-Lena-759242</t>
   </si>
   <si>
-    <t>26e-Lena-753191</t>
+    <t>26e-Lena-984588</t>
   </si>
   <si>
-    <t>26e-Lena-645479</t>
+    <t>26e-Lena-540042</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F010d2fc"/>
+        <fgColor rgb="F98a3a7b"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LX503"/>
+  <dimension ref="A1:RA503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -925,14 +925,11 @@
       </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:336" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>-0.688</v>
       </c>
       <c r="M80" s="4"/>
-      <c r="LX80" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -2140,11 +2137,14 @@
       </c>
       <c r="M281" s="4"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:459" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>0.12</v>
       </c>
       <c r="M282" s="4"/>
+      <c r="QQ282" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
@@ -2158,11 +2158,14 @@
       </c>
       <c r="M284" s="4"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>0.132</v>
       </c>
       <c r="M285" s="4"/>
+      <c r="CE285" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
@@ -2608,11 +2611,14 @@
       </c>
       <c r="M359" s="4"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>0.432</v>
       </c>
       <c r="M360" s="4"/>
+      <c r="RA360" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
@@ -2908,14 +2914,11 @@
       </c>
       <c r="M409" s="4"/>
     </row>
-    <row r="410" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>0.632</v>
       </c>
       <c r="M410" s="4"/>
-      <c r="BS410" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
@@ -3127,14 +3130,11 @@
       </c>
       <c r="M445" s="4"/>
     </row>
-    <row r="446" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>0.776</v>
       </c>
       <c r="M446" s="4"/>
-      <c r="AD446" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
